--- a/Figures/figure7.xlsx
+++ b/Figures/figure7.xlsx
@@ -460,10 +460,10 @@
         <v>3658.683433231951</v>
       </c>
       <c r="C2" t="n">
-        <v>16591.57483247307</v>
+        <v>17269.75622598971</v>
       </c>
       <c r="D2" t="n">
-        <v>12539.21735784941</v>
+        <v>13072.54707231624</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         <v>6149.196657491804</v>
       </c>
       <c r="C3" t="n">
-        <v>15203.45437751791</v>
+        <v>16130.15954713227</v>
       </c>
       <c r="D3" t="n">
-        <v>17363.19200876008</v>
+        <v>17994.08979746174</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         <v>8838.014668688003</v>
       </c>
       <c r="C4" t="n">
-        <v>23538.18960404784</v>
+        <v>23738.36797043378</v>
       </c>
       <c r="D4" t="n">
-        <v>24345.50299616803</v>
+        <v>25042.99372674996</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         <v>11048.75865041318</v>
       </c>
       <c r="C5" t="n">
-        <v>24594.57864678403</v>
+        <v>25336.31179921611</v>
       </c>
       <c r="D5" t="n">
-        <v>27595.19002233801</v>
+        <v>28330.50892282645</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         <v>12869.58400644032</v>
       </c>
       <c r="C6" t="n">
-        <v>49657.89928419502</v>
+        <v>47813.38366659574</v>
       </c>
       <c r="D6" t="n">
-        <v>35780.8654420964</v>
+        <v>36539.60988975066</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         <v>13480.37164006155</v>
       </c>
       <c r="C7" t="n">
-        <v>46198.22554042072</v>
+        <v>48888.02286053132</v>
       </c>
       <c r="D7" t="n">
-        <v>43503.58927013929</v>
+        <v>44268.94712677151</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         <v>14149.91879898117</v>
       </c>
       <c r="C8" t="n">
-        <v>34389.04067799394</v>
+        <v>36616.20108796201</v>
       </c>
       <c r="D8" t="n">
-        <v>31573.95093777575</v>
+        <v>32345.93130194594</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         <v>14513.16828722442</v>
       </c>
       <c r="C9" t="n">
-        <v>42069.26746339315</v>
+        <v>41407.96226554817</v>
       </c>
       <c r="D9" t="n">
-        <v>45424.46818961443</v>
+        <v>46199.78475350586</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         <v>14519.84968915406</v>
       </c>
       <c r="C10" t="n">
-        <v>37720.6920675483</v>
+        <v>38644.28049462861</v>
       </c>
       <c r="D10" t="n">
-        <v>39072.59376509536</v>
+        <v>39847.97007021706</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         <v>20022.66000649776</v>
       </c>
       <c r="C11" t="n">
-        <v>33804.41212093781</v>
+        <v>33893.46372231587</v>
       </c>
       <c r="D11" t="n">
-        <v>61175.52766566489</v>
+        <v>61983.82876475178</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         <v>20187.1519177173</v>
       </c>
       <c r="C12" t="n">
-        <v>58777.72554948639</v>
+        <v>59063.40280980032</v>
       </c>
       <c r="D12" t="n">
-        <v>50796.14981482644</v>
+        <v>51605.01973427845</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         <v>21447.0789852848</v>
       </c>
       <c r="C13" t="n">
-        <v>50283.24008770614</v>
+        <v>52117.48596336965</v>
       </c>
       <c r="D13" t="n">
-        <v>57442.44053549587</v>
+        <v>58255.02257451155</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         <v>26079.07670771616</v>
       </c>
       <c r="C14" t="n">
-        <v>89857.70472899245</v>
+        <v>95984.36481901503</v>
       </c>
       <c r="D14" t="n">
-        <v>82768.76398259051</v>
+        <v>83586.59295035929</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         <v>26666.03287823916</v>
       </c>
       <c r="C15" t="n">
-        <v>69115.58509931524</v>
+        <v>70049.05817285097</v>
       </c>
       <c r="D15" t="n">
-        <v>65072.98986576097</v>
+        <v>65890.68012798122</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         <v>27292.54363888601</v>
       </c>
       <c r="C16" t="n">
-        <v>46836.24812801063</v>
+        <v>48897.48381262354</v>
       </c>
       <c r="D16" t="n">
-        <v>75387.05502212884</v>
+        <v>76204.42337370102</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         <v>28208.55106545503</v>
       </c>
       <c r="C17" t="n">
-        <v>44819.00003385076</v>
+        <v>44173.25882250874</v>
       </c>
       <c r="D17" t="n">
-        <v>82788.58396083585</v>
+        <v>83605.17300278367</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         <v>28504.76361736477</v>
       </c>
       <c r="C18" t="n">
-        <v>101646.0242270722</v>
+        <v>102229.1881579714</v>
       </c>
       <c r="D18" t="n">
-        <v>73284.96023590666</v>
+        <v>74101.22182492891</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         <v>29088.96566699443</v>
       </c>
       <c r="C19" t="n">
-        <v>153569.0769091239</v>
+        <v>153332.6099105298</v>
       </c>
       <c r="D19" t="n">
-        <v>85841.26104498394</v>
+        <v>86656.77270306362</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         <v>29529.29932682129</v>
       </c>
       <c r="C20" t="n">
-        <v>79849.63502358629</v>
+        <v>83459.83115782187</v>
       </c>
       <c r="D20" t="n">
-        <v>74774.53294431887</v>
+        <v>75589.39044948263</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         <v>29801.81013841575</v>
       </c>
       <c r="C21" t="n">
-        <v>68813.11485210048</v>
+        <v>69004.72599732579</v>
       </c>
       <c r="D21" t="n">
-        <v>78820.43171165022</v>
+        <v>79634.84708312887</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         <v>30910.70748344712</v>
       </c>
       <c r="C22" t="n">
-        <v>68870.24699635647</v>
+        <v>70468.11137323974</v>
       </c>
       <c r="D22" t="n">
-        <v>79926.68412120307</v>
+        <v>80739.01660826517</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         <v>33086.06534687009</v>
       </c>
       <c r="C23" t="n">
-        <v>72719.0295696242</v>
+        <v>72704.9046392759</v>
       </c>
       <c r="D23" t="n">
-        <v>88517.96090804128</v>
+        <v>89324.97022516366</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         <v>33821.1264676923</v>
       </c>
       <c r="C24" t="n">
-        <v>109200.0842218224</v>
+        <v>113162.5061703562</v>
       </c>
       <c r="D24" t="n">
-        <v>88229.51355240999</v>
+        <v>89034.38037678695</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         <v>33866.72561612055</v>
       </c>
       <c r="C25" t="n">
-        <v>89875.44302632635</v>
+        <v>90964.5404647269</v>
       </c>
       <c r="D25" t="n">
-        <v>85033.45617023007</v>
+        <v>85838.18466554655</v>
       </c>
     </row>
     <row r="26">
@@ -844,10 +844,10 @@
         <v>36660.96345042055</v>
       </c>
       <c r="C26" t="n">
-        <v>90586.94426155063</v>
+        <v>92197.15073541773</v>
       </c>
       <c r="D26" t="n">
-        <v>87919.12411562662</v>
+        <v>88714.23973833497</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +860,10 @@
         <v>37915.32721705383</v>
       </c>
       <c r="C27" t="n">
-        <v>101109.9116473375</v>
+        <v>103569.6264494387</v>
       </c>
       <c r="D27" t="n">
-        <v>104432.2570906732</v>
+        <v>105222.3783177647</v>
       </c>
     </row>
     <row r="28">
@@ -876,10 +876,10 @@
         <v>38507.33191216513</v>
       </c>
       <c r="C28" t="n">
-        <v>88218.90786788253</v>
+        <v>91229.86810640203</v>
       </c>
       <c r="D28" t="n">
-        <v>94984.49635568073</v>
+        <v>95772.12504910972</v>
       </c>
     </row>
     <row r="29">
@@ -892,10 +892,10 @@
         <v>39626.84315955194</v>
       </c>
       <c r="C29" t="n">
-        <v>77410.34591688185</v>
+        <v>80718.72742460456</v>
       </c>
       <c r="D29" t="n">
-        <v>100770.9479799878</v>
+        <v>101553.6366725026</v>
       </c>
     </row>
     <row r="30">
@@ -908,10 +908,10 @@
         <v>40826.53392688349</v>
       </c>
       <c r="C30" t="n">
-        <v>114239.3276024601</v>
+        <v>100839.866766667</v>
       </c>
       <c r="D30" t="n">
-        <v>110094.3315356778</v>
+        <v>110871.411916226</v>
       </c>
     </row>
     <row r="31">
@@ -924,10 +924,10 @@
         <v>41000.99633912095</v>
       </c>
       <c r="C31" t="n">
-        <v>96579.64670869755</v>
+        <v>100078.5714583498</v>
       </c>
       <c r="D31" t="n">
-        <v>102239.0723240637</v>
+        <v>103015.3110355217</v>
       </c>
     </row>
     <row r="32">
@@ -940,10 +940,10 @@
         <v>41741.43521820427</v>
       </c>
       <c r="C32" t="n">
-        <v>81309.8442481555</v>
+        <v>81273.28639202134</v>
       </c>
       <c r="D32" t="n">
-        <v>87944.42900752215</v>
+        <v>88717.02413183879</v>
       </c>
     </row>
     <row r="33">
@@ -956,10 +956,10 @@
         <v>41784.82081334645</v>
       </c>
       <c r="C33" t="n">
-        <v>97037.45445099376</v>
+        <v>97335.53491769935</v>
       </c>
       <c r="D33" t="n">
-        <v>109843.6340686669</v>
+        <v>110616.0121626926</v>
       </c>
     </row>
     <row r="34">
@@ -972,10 +972,10 @@
         <v>44651.36115317269</v>
       </c>
       <c r="C34" t="n">
-        <v>106456.6473477769</v>
+        <v>106837.7049558313</v>
       </c>
       <c r="D34" t="n">
-        <v>124473.6343605703</v>
+        <v>125230.8496440927</v>
       </c>
     </row>
     <row r="35">
@@ -988,10 +988,10 @@
         <v>45987.96083386493</v>
       </c>
       <c r="C35" t="n">
-        <v>107006.6460126439</v>
+        <v>104863.7790165832</v>
       </c>
       <c r="D35" t="n">
-        <v>124898.8794157379</v>
+        <v>125648.5020584555</v>
       </c>
     </row>
     <row r="36">
@@ -1004,10 +1004,10 @@
         <v>47222.94185739049</v>
       </c>
       <c r="C36" t="n">
-        <v>92439.20268217</v>
+        <v>93677.48112490428</v>
       </c>
       <c r="D36" t="n">
-        <v>111496.2876894306</v>
+        <v>112238.6207831146</v>
       </c>
     </row>
     <row r="37">
@@ -1020,10 +1020,10 @@
         <v>47470.63295942849</v>
       </c>
       <c r="C37" t="n">
-        <v>169368.8107637069</v>
+        <v>168970.9113754786</v>
       </c>
       <c r="D37" t="n">
-        <v>133728.2656249961</v>
+        <v>134469.106173533</v>
       </c>
     </row>
     <row r="38">
@@ -1036,10 +1036,10 @@
         <v>48657.75224672654</v>
       </c>
       <c r="C38" t="n">
-        <v>209897.1450236278</v>
+        <v>211268.9248526312</v>
       </c>
       <c r="D38" t="n">
-        <v>131667.6453006962</v>
+        <v>132401.1956945714</v>
       </c>
     </row>
     <row r="39">
@@ -1052,10 +1052,10 @@
         <v>50152.63589053244</v>
       </c>
       <c r="C39" t="n">
-        <v>146623.5083170641</v>
+        <v>148582.9280684483</v>
       </c>
       <c r="D39" t="n">
-        <v>139823.0771663645</v>
+        <v>140547.1372613928</v>
       </c>
     </row>
     <row r="40">
@@ -1068,10 +1068,10 @@
         <v>50771.44050608332</v>
       </c>
       <c r="C40" t="n">
-        <v>163949.3681030322</v>
+        <v>164764.173912446</v>
       </c>
       <c r="D40" t="n">
-        <v>132506.2994424669</v>
+        <v>133226.3339880577</v>
       </c>
     </row>
     <row r="41">
@@ -1084,10 +1084,10 @@
         <v>52692.84744205404</v>
       </c>
       <c r="C41" t="n">
-        <v>133662.7811208659</v>
+        <v>133802.6174840367</v>
       </c>
       <c r="D41" t="n">
-        <v>136679.0778771989</v>
+        <v>137386.2683179172</v>
       </c>
     </row>
     <row r="42">
@@ -1100,10 +1100,10 @@
         <v>53011.73802062972</v>
       </c>
       <c r="C42" t="n">
-        <v>142115.2941630241</v>
+        <v>140930.3865905527</v>
       </c>
       <c r="D42" t="n">
-        <v>141992.5528255278</v>
+        <v>142697.5628320631</v>
       </c>
     </row>
     <row r="43">
@@ -1116,10 +1116,10 @@
         <v>54652.508821656</v>
       </c>
       <c r="C43" t="n">
-        <v>136892.3538856394</v>
+        <v>137453.9954224532</v>
       </c>
       <c r="D43" t="n">
-        <v>139980.0927118852</v>
+        <v>140673.6743809432</v>
       </c>
     </row>
     <row r="44">
@@ -1132,10 +1132,10 @@
         <v>55045.61490480631</v>
       </c>
       <c r="C44" t="n">
-        <v>166262.3526183449</v>
+        <v>167364.1104583104</v>
       </c>
       <c r="D44" t="n">
-        <v>142132.2289015956</v>
+        <v>142823.0218209339</v>
       </c>
     </row>
     <row r="45">
@@ -1148,10 +1148,10 @@
         <v>55348.89320301366</v>
       </c>
       <c r="C45" t="n">
-        <v>140038.4912013088</v>
+        <v>140244.616815707</v>
       </c>
       <c r="D45" t="n">
-        <v>139379.344282308</v>
+        <v>140067.9726734373</v>
       </c>
     </row>
     <row r="46">
@@ -1164,10 +1164,10 @@
         <v>59984.09112201868</v>
       </c>
       <c r="C46" t="n">
-        <v>204556.1378008187</v>
+        <v>203320.2609063407</v>
       </c>
       <c r="D46" t="n">
-        <v>185038.8585670069</v>
+        <v>185693.0739827471</v>
       </c>
     </row>
     <row r="47">
@@ -1180,10 +1180,10 @@
         <v>62940.19617704568</v>
       </c>
       <c r="C47" t="n">
-        <v>190884.0755715008</v>
+        <v>190985.135192609</v>
       </c>
       <c r="D47" t="n">
-        <v>160688.1499676451</v>
+        <v>161319.2202966589</v>
       </c>
     </row>
     <row r="48">
@@ -1196,10 +1196,10 @@
         <v>67139.05770213302</v>
       </c>
       <c r="C48" t="n">
-        <v>138776.0641193195</v>
+        <v>137391.3466627909</v>
       </c>
       <c r="D48" t="n">
-        <v>166517.2392014123</v>
+        <v>167114.0161481968</v>
       </c>
     </row>
     <row r="49">
@@ -1212,10 +1212,10 @@
         <v>78211.48525458689</v>
       </c>
       <c r="C49" t="n">
-        <v>119574.7137370865</v>
+        <v>121949.1705817626</v>
       </c>
       <c r="D49" t="n">
-        <v>145553.4715994291</v>
+        <v>146053.1073908115</v>
       </c>
     </row>
     <row r="50">
@@ -1228,10 +1228,10 @@
         <v>112700.6754642628</v>
       </c>
       <c r="C50" t="n">
-        <v>243195.9915111728</v>
+        <v>248618.3140738361</v>
       </c>
       <c r="D50" t="n">
-        <v>245256.3924388055</v>
+        <v>245411.5892664061</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/figure7.xlsx
+++ b/Figures/figure7.xlsx
@@ -460,10 +460,10 @@
         <v>3658.683433231951</v>
       </c>
       <c r="C2" t="n">
-        <v>17269.75622598971</v>
+        <v>16905.43710002151</v>
       </c>
       <c r="D2" t="n">
-        <v>13072.54707231624</v>
+        <v>12642.0253427297</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         <v>6149.196657491804</v>
       </c>
       <c r="C3" t="n">
-        <v>16130.15954713227</v>
+        <v>15167.54131043129</v>
       </c>
       <c r="D3" t="n">
-        <v>17994.08979746174</v>
+        <v>17422.98034507523</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         <v>8838.014668688003</v>
       </c>
       <c r="C4" t="n">
-        <v>23738.36797043378</v>
+        <v>22274.84716920583</v>
       </c>
       <c r="D4" t="n">
-        <v>25042.99372674996</v>
+        <v>24175.56059344363</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         <v>11048.75865041318</v>
       </c>
       <c r="C5" t="n">
-        <v>25336.31179921611</v>
+        <v>24351.20418816822</v>
       </c>
       <c r="D5" t="n">
-        <v>28330.50892282645</v>
+        <v>27392.09333640726</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         <v>12869.58400644032</v>
       </c>
       <c r="C6" t="n">
-        <v>47813.38366659574</v>
+        <v>46186.82982560474</v>
       </c>
       <c r="D6" t="n">
-        <v>36539.60988975066</v>
+        <v>35169.86263232183</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         <v>13480.37164006155</v>
       </c>
       <c r="C7" t="n">
-        <v>48888.02286053132</v>
+        <v>48541.71257420899</v>
       </c>
       <c r="D7" t="n">
-        <v>44268.94712677151</v>
+        <v>42426.86445458703</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         <v>14149.91879898117</v>
       </c>
       <c r="C8" t="n">
-        <v>36616.20108796201</v>
+        <v>33661.73353113382</v>
       </c>
       <c r="D8" t="n">
-        <v>32345.93130194594</v>
+        <v>31338.88368232083</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         <v>14513.16828722442</v>
       </c>
       <c r="C9" t="n">
-        <v>41407.96226554817</v>
+        <v>39658.43649622773</v>
       </c>
       <c r="D9" t="n">
-        <v>46199.78475350586</v>
+        <v>44305.51895392578</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         <v>14519.84968915406</v>
       </c>
       <c r="C10" t="n">
-        <v>38644.28049462861</v>
+        <v>36589.3786654189</v>
       </c>
       <c r="D10" t="n">
-        <v>39847.97007021706</v>
+        <v>38371.14186510815</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         <v>20022.66000649776</v>
       </c>
       <c r="C11" t="n">
-        <v>33893.46372231587</v>
+        <v>31299.90300849402</v>
       </c>
       <c r="D11" t="n">
-        <v>61983.82876475178</v>
+        <v>59476.95151094632</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         <v>20187.1519177173</v>
       </c>
       <c r="C12" t="n">
-        <v>59063.40280980032</v>
+        <v>55486.3589472441</v>
       </c>
       <c r="D12" t="n">
-        <v>51605.01973427845</v>
+        <v>49745.67670599426</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         <v>21447.0789852848</v>
       </c>
       <c r="C13" t="n">
-        <v>52117.48596336965</v>
+        <v>49923.77865149324</v>
       </c>
       <c r="D13" t="n">
-        <v>58255.02257451155</v>
+        <v>56070.05567294502</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         <v>26079.07670771616</v>
       </c>
       <c r="C14" t="n">
-        <v>95984.36481901503</v>
+        <v>94234.57181599503</v>
       </c>
       <c r="D14" t="n">
-        <v>83586.59295035929</v>
+        <v>80223.16299219802</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         <v>26666.03287823916</v>
       </c>
       <c r="C15" t="n">
-        <v>70049.05817285097</v>
+        <v>67448.82948719188</v>
       </c>
       <c r="D15" t="n">
-        <v>65890.68012798122</v>
+        <v>63576.41873186399</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         <v>27292.54363888601</v>
       </c>
       <c r="C16" t="n">
-        <v>48897.48381262354</v>
+        <v>47550.64933182385</v>
       </c>
       <c r="D16" t="n">
-        <v>76204.42337370102</v>
+        <v>73343.09185623107</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         <v>28208.55106545503</v>
       </c>
       <c r="C17" t="n">
-        <v>44173.25882250874</v>
+        <v>43526.59953065449</v>
       </c>
       <c r="D17" t="n">
-        <v>83605.17300278367</v>
+        <v>80387.06083646334</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         <v>28504.76361736477</v>
       </c>
       <c r="C18" t="n">
-        <v>102229.1881579714</v>
+        <v>96455.76432936463</v>
       </c>
       <c r="D18" t="n">
-        <v>74101.22182492891</v>
+        <v>71433.45596493836</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         <v>29088.96566699443</v>
       </c>
       <c r="C19" t="n">
-        <v>153332.6099105298</v>
+        <v>144035.951052152</v>
       </c>
       <c r="D19" t="n">
-        <v>86656.77270306362</v>
+        <v>83327.35382016608</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         <v>29529.29932682129</v>
       </c>
       <c r="C20" t="n">
-        <v>83459.83115782187</v>
+        <v>82885.33981406162</v>
       </c>
       <c r="D20" t="n">
-        <v>75589.39044948263</v>
+        <v>72900.50691780023</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         <v>29801.81013841575</v>
       </c>
       <c r="C21" t="n">
-        <v>69004.72599732579</v>
+        <v>68894.66952040972</v>
       </c>
       <c r="D21" t="n">
-        <v>79634.84708312887</v>
+        <v>76739.36906774611</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         <v>30910.70748344712</v>
       </c>
       <c r="C22" t="n">
-        <v>70468.11137323974</v>
+        <v>69537.9363591833</v>
       </c>
       <c r="D22" t="n">
-        <v>80739.01660826517</v>
+        <v>77850.66476853276</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         <v>33086.06534687009</v>
       </c>
       <c r="C23" t="n">
-        <v>72704.9046392759</v>
+        <v>68112.40602214848</v>
       </c>
       <c r="D23" t="n">
-        <v>89324.97022516366</v>
+        <v>86107.25030310568</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         <v>33821.1264676923</v>
       </c>
       <c r="C24" t="n">
-        <v>113162.5061703562</v>
+        <v>110501.1518150782</v>
       </c>
       <c r="D24" t="n">
-        <v>89034.38037678695</v>
+        <v>85876.91262145471</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         <v>33866.72561612055</v>
       </c>
       <c r="C25" t="n">
-        <v>90964.5404647269</v>
+        <v>87370.715998074</v>
       </c>
       <c r="D25" t="n">
-        <v>85838.18466554655</v>
+        <v>82852.21424654043</v>
       </c>
     </row>
     <row r="26">
@@ -844,10 +844,10 @@
         <v>36660.96345042055</v>
       </c>
       <c r="C26" t="n">
-        <v>92197.15073541773</v>
+        <v>87071.75839233374</v>
       </c>
       <c r="D26" t="n">
-        <v>88714.23973833497</v>
+        <v>85738.67527702558</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +860,10 @@
         <v>37915.32721705383</v>
       </c>
       <c r="C27" t="n">
-        <v>103569.6264494387</v>
+        <v>96537.67647015587</v>
       </c>
       <c r="D27" t="n">
-        <v>105222.3783177647</v>
+        <v>101479.0392176395</v>
       </c>
     </row>
     <row r="28">
@@ -876,10 +876,10 @@
         <v>38507.33191216513</v>
       </c>
       <c r="C28" t="n">
-        <v>91229.86810640203</v>
+        <v>88339.75848957786</v>
       </c>
       <c r="D28" t="n">
-        <v>95772.12504910972</v>
+        <v>92542.00761559447</v>
       </c>
     </row>
     <row r="29">
@@ -892,10 +892,10 @@
         <v>39626.84315955194</v>
       </c>
       <c r="C29" t="n">
-        <v>80718.72742460456</v>
+        <v>75778.562372771</v>
       </c>
       <c r="D29" t="n">
-        <v>101553.6366725026</v>
+        <v>98098.28184531824</v>
       </c>
     </row>
     <row r="30">
@@ -908,10 +908,10 @@
         <v>40826.53392688349</v>
       </c>
       <c r="C30" t="n">
-        <v>100839.866766667</v>
+        <v>117871.5604828493</v>
       </c>
       <c r="D30" t="n">
-        <v>110871.411916226</v>
+        <v>107025.7918995116</v>
       </c>
     </row>
     <row r="31">
@@ -924,10 +924,10 @@
         <v>41000.99633912095</v>
       </c>
       <c r="C31" t="n">
-        <v>100078.5714583498</v>
+        <v>92765.75289327549</v>
       </c>
       <c r="D31" t="n">
-        <v>103015.3110355217</v>
+        <v>99567.00452558097</v>
       </c>
     </row>
     <row r="32">
@@ -940,10 +940,10 @@
         <v>41741.43521820427</v>
       </c>
       <c r="C32" t="n">
-        <v>81273.28639202134</v>
+        <v>79996.31761524217</v>
       </c>
       <c r="D32" t="n">
-        <v>88717.02413183879</v>
+        <v>86009.57063899832</v>
       </c>
     </row>
     <row r="33">
@@ -956,10 +956,10 @@
         <v>41784.82081334645</v>
       </c>
       <c r="C33" t="n">
-        <v>97335.53491769935</v>
+        <v>90819.52290872802</v>
       </c>
       <c r="D33" t="n">
-        <v>110616.0121626926</v>
+        <v>106840.8799625777</v>
       </c>
     </row>
     <row r="34">
@@ -972,10 +972,10 @@
         <v>44651.36115317269</v>
       </c>
       <c r="C34" t="n">
-        <v>106837.7049558313</v>
+        <v>99166.04664380381</v>
       </c>
       <c r="D34" t="n">
-        <v>125230.8496440927</v>
+        <v>120926.6294421199</v>
       </c>
     </row>
     <row r="35">
@@ -988,10 +988,10 @@
         <v>45987.96083386493</v>
       </c>
       <c r="C35" t="n">
-        <v>104863.7790165832</v>
+        <v>100365.0290816926</v>
       </c>
       <c r="D35" t="n">
-        <v>125648.5020584555</v>
+        <v>121407.0812581186</v>
       </c>
     </row>
     <row r="36">
@@ -1004,10 +1004,10 @@
         <v>47222.94185739049</v>
       </c>
       <c r="C36" t="n">
-        <v>93677.48112490428</v>
+        <v>90059.39297763631</v>
       </c>
       <c r="D36" t="n">
-        <v>112238.6207831146</v>
+        <v>108694.5912522921</v>
       </c>
     </row>
     <row r="37">
@@ -1020,10 +1020,10 @@
         <v>47470.63295942849</v>
       </c>
       <c r="C37" t="n">
-        <v>168970.9113754786</v>
+        <v>161915.8497850943</v>
       </c>
       <c r="D37" t="n">
-        <v>134469.106173533</v>
+        <v>129907.8190418039</v>
       </c>
     </row>
     <row r="38">
@@ -1036,10 +1036,10 @@
         <v>48657.75224672654</v>
       </c>
       <c r="C38" t="n">
-        <v>211268.9248526312</v>
+        <v>255293.6133246898</v>
       </c>
       <c r="D38" t="n">
-        <v>132401.1956945714</v>
+        <v>128008.4324912184</v>
       </c>
     </row>
     <row r="39">
@@ -1052,10 +1052,10 @@
         <v>50152.63589053244</v>
       </c>
       <c r="C39" t="n">
-        <v>148582.9280684483</v>
+        <v>141424.7649926382</v>
       </c>
       <c r="D39" t="n">
-        <v>140547.1372613928</v>
+        <v>135874.7051100314</v>
       </c>
     </row>
     <row r="40">
@@ -1068,10 +1068,10 @@
         <v>50771.44050608332</v>
       </c>
       <c r="C40" t="n">
-        <v>164764.173912446</v>
+        <v>157970.286754904</v>
       </c>
       <c r="D40" t="n">
-        <v>133226.3339880577</v>
+        <v>128921.5677877982</v>
       </c>
     </row>
     <row r="41">
@@ -1084,10 +1084,10 @@
         <v>52692.84744205404</v>
       </c>
       <c r="C41" t="n">
-        <v>133802.6174840367</v>
+        <v>128130.1754669283</v>
       </c>
       <c r="D41" t="n">
-        <v>137386.2683179172</v>
+        <v>133007.2344029587</v>
       </c>
     </row>
     <row r="42">
@@ -1100,10 +1100,10 @@
         <v>53011.73802062972</v>
       </c>
       <c r="C42" t="n">
-        <v>140930.3865905527</v>
+        <v>133655.1957826103</v>
       </c>
       <c r="D42" t="n">
-        <v>142697.5628320631</v>
+        <v>138102.3704210776</v>
       </c>
     </row>
     <row r="43">
@@ -1116,10 +1116,10 @@
         <v>54652.508821656</v>
       </c>
       <c r="C43" t="n">
-        <v>137453.9954224532</v>
+        <v>129085.50828987</v>
       </c>
       <c r="D43" t="n">
-        <v>140673.6743809432</v>
+        <v>136262.517368438</v>
       </c>
     </row>
     <row r="44">
@@ -1132,10 +1132,10 @@
         <v>55045.61490480631</v>
       </c>
       <c r="C44" t="n">
-        <v>167364.1104583104</v>
+        <v>157226.6537002815</v>
       </c>
       <c r="D44" t="n">
-        <v>142823.0218209339</v>
+        <v>138340.8434067073</v>
       </c>
     </row>
     <row r="45">
@@ -1148,10 +1148,10 @@
         <v>55348.89320301366</v>
       </c>
       <c r="C45" t="n">
-        <v>140244.616815707</v>
+        <v>131884.6424570323</v>
       </c>
       <c r="D45" t="n">
-        <v>140067.9726734373</v>
+        <v>135722.3289850291</v>
       </c>
     </row>
     <row r="46">
@@ -1164,10 +1164,10 @@
         <v>59984.09112201868</v>
       </c>
       <c r="C46" t="n">
-        <v>203320.2609063407</v>
+        <v>192460.5974124373</v>
       </c>
       <c r="D46" t="n">
-        <v>185693.0739827471</v>
+        <v>179695.0437171199</v>
       </c>
     </row>
     <row r="47">
@@ -1180,10 +1180,10 @@
         <v>62940.19617704568</v>
       </c>
       <c r="C47" t="n">
-        <v>190985.135192609</v>
+        <v>184787.2901212575</v>
       </c>
       <c r="D47" t="n">
-        <v>161319.2202966589</v>
+        <v>156504.7498849096</v>
       </c>
     </row>
     <row r="48">
@@ -1196,10 +1196,10 @@
         <v>67139.05770213302</v>
       </c>
       <c r="C48" t="n">
-        <v>137391.3466627909</v>
+        <v>129857.7584470511</v>
       </c>
       <c r="D48" t="n">
-        <v>167114.0161481968</v>
+        <v>162296.2522789774</v>
       </c>
     </row>
     <row r="49">
@@ -1212,10 +1212,10 @@
         <v>78211.48525458689</v>
       </c>
       <c r="C49" t="n">
-        <v>121949.1705817626</v>
+        <v>112696.920647212</v>
       </c>
       <c r="D49" t="n">
-        <v>146053.1073908115</v>
+        <v>142539.5738979665</v>
       </c>
     </row>
     <row r="50">
@@ -1228,10 +1228,10 @@
         <v>112700.6754642628</v>
       </c>
       <c r="C50" t="n">
-        <v>248618.3140738361</v>
+        <v>241918.2639353328</v>
       </c>
       <c r="D50" t="n">
-        <v>245411.5892664061</v>
+        <v>240077.3497923528</v>
       </c>
     </row>
   </sheetData>
